--- a/biology/Botanique/Aristolochia_albida/Aristolochia_albida.xlsx
+++ b/biology/Botanique/Aristolochia_albida/Aristolochia_albida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aristolochia albida est une espèce de plantes grimpantes de la famille des Aristolochiaceae[1]. Le nom commun est Scrambling dutchman’s pipe en anglais et Zagariro en shona[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aristolochia albida est une espèce de plantes grimpantes de la famille des Aristolochiaceae. Le nom commun est Scrambling dutchman’s pipe en anglais et Zagariro en shona.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les rameaux de cette plante sont étroits, habituellement d'une longueur de trois mètres (pouvant aller jusqu’à dix mètres) et avec une odeur déplaisante. Les feuilles non-pubescentes avec une taille de 2-20 cm de longueur sont ovoïdes-oblongues, parfois triangulaires et trilobées. La base est cardioïde et il y a 3-7 nervures. Les fleurs sont situées dans des grappes oblongues axillaires à 2-12 fleurs et il y a des bractées frappantes avec une longueur de jusqu’à 4 cm. Le tube du périanthe avec une longueur de jusqu’à 20 mm est gris ou vert-violet. Les fruits en forme de gousse est de jusqu’à 5 cm long et oblongue-cylindrique, avec six nervures. Apres se partageant en six les segments restent à la plante et forment une corbeille suspendue[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rameaux de cette plante sont étroits, habituellement d'une longueur de trois mètres (pouvant aller jusqu’à dix mètres) et avec une odeur déplaisante. Les feuilles non-pubescentes avec une taille de 2-20 cm de longueur sont ovoïdes-oblongues, parfois triangulaires et trilobées. La base est cardioïde et il y a 3-7 nervures. Les fleurs sont situées dans des grappes oblongues axillaires à 2-12 fleurs et il y a des bractées frappantes avec une longueur de jusqu’à 4 cm. Le tube du périanthe avec une longueur de jusqu’à 20 mm est gris ou vert-violet. Les fruits en forme de gousse est de jusqu’à 5 cm long et oblongue-cylindrique, avec six nervures. Apres se partageant en six les segments restent à la plante et forment une corbeille suspendue.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A. albida a des synonymes suivants[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A. albida a des synonymes suivants:
 A. aethiopica Welw.
 A. angulata Bojor ex Duch.
 A. aurita Duch.
@@ -585,9 +601,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A. albida se trouve dans des forêts à feuilles caduques, au bord des rivières et dans les régions inondées, en Afrique tropicale, jusqu'à une altitude de 1 500 m. La plante se développe aussi comme herbe adventice sur des décharges et dans les plantations de sisal[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. albida se trouve dans des forêts à feuilles caduques, au bord des rivières et dans les régions inondées, en Afrique tropicale, jusqu'à une altitude de 1 500 m. La plante se développe aussi comme herbe adventice sur des décharges et dans les plantations de sisal.
 </t>
         </is>
       </c>
@@ -616,11 +634,13 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine, les racines sont utilisées comme fortifiant, contre le ver Draunculus medinensis ou en cas de maux d'estomac. Mélangées avec du jus de citron vert, les racines sont aussi utilisées contre les morsures de serpent ou de scorpion[3].
-Les feuilles sèches d’A. albida, parfois avec les racines, sont utilisées comme anthelminthique, contre des maladies de peau et des pustules[3].
-La racine de cette espèce peut être confondue avec celle de Cissampelos (Menispermaceae)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine, les racines sont utilisées comme fortifiant, contre le ver Draunculus medinensis ou en cas de maux d'estomac. Mélangées avec du jus de citron vert, les racines sont aussi utilisées contre les morsures de serpent ou de scorpion.
+Les feuilles sèches d’A. albida, parfois avec les racines, sont utilisées comme anthelminthique, contre des maladies de peau et des pustules.
+La racine de cette espèce peut être confondue avec celle de Cissampelos (Menispermaceae).
 </t>
         </is>
       </c>
